--- a/spreadsheet/macrofree/appsvc_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/appsvc_checklist.pt.xlsx
@@ -1064,15 +1064,19 @@
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Consulte a arquitetura de aplicativo Web com redundância de zona altamente disponível da linha de base para obter as práticas recomendadas</t>
-        </is>
-      </c>
-      <c r="D8" s="21" t="n"/>
+          <t>Implemente uma arquitetura de aplicativo Web com redundância de zona altamente disponível de linha de base. Verifique se o Serviço de Aplicativo do Azure está nas camadas Premium V2/V3 ou Isolada v2 para suporte com redundância de zona.</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite a redundância de zona para garantir alta disponibilidade em caso de falhas no nível da zona. Use as camadas Premium V2/V3 ou Isoladas v2, que fornecem suporte para implantações com redundância de zona e garantem um tempo de inatividade mínimo durante desastres.</t>
+        </is>
+      </c>
       <c r="E8" s="21" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -1086,7 +1090,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/app-service-web-app/zone-redundant?source=recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1110,15 +1114,19 @@
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Use as camadas Premium e Standard. Esses níveis oferecem suporte a slots de preparo e backups automatizados.</t>
-        </is>
-      </c>
-      <c r="D9" s="21" t="n"/>
+          <t>Use as camadas Premium e Standard para slots de preparo e backups automatizados. Alinhe seu período de retenção de backup com as necessidades de recuperação de desastres.</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite os slots de teste para implantações sem tempo de inatividade e backups automatizados para garantir a recuperação de desastres. Escolha a camada apropriada (Standard ou Premium) com base no número de slots e nos requisitos de recuperação de desastre.</t>
+        </is>
+      </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1132,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1156,15 +1164,19 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (requer a camada Premium v2 ou v3)</t>
-        </is>
-      </c>
-      <c r="D10" s="21" t="n"/>
+          <t>Aproveite as zonas de disponibilidade quando aplicável regionalmente (camada Premium V2/V3 necessária). Verifique o suporte de região para zonas de disponibilidade.</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="inlineStr">
+        <is>
+          <t>As zonas de disponibilidade fornecem isolamento físico entre datacenters em uma região, reduzindo o tempo de inatividade durante interrupções. Verifique se sua região dá suporte a Zonas de Disponibilidade e use camadas Premium V2/V3 para implantações com redundância de zona.</t>
+        </is>
+      </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1178,7 +1190,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/migrate-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/migrate-app-service</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1207,10 +1219,14 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Implementar verificações de integridade</t>
-        </is>
-      </c>
-      <c r="D11" s="21" t="n"/>
+          <t>Implemente verificações de integridade para monitorar e detectar problemas com instâncias do Serviço de Aplicativo. As verificações de integridade permitem a substituição automática de instâncias em caso de falha.</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="inlineStr">
+        <is>
+          <t>Habilite verificações de integridade para detectar instâncias não íntegras em tempo real e substituí-las automaticamente para manter a alta disponibilidade e a confiabilidade do aplicativo.</t>
+        </is>
+      </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1224,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1253,10 +1269,14 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Consulte as práticas recomendadas de backup e restauração para o Serviço de Aplicativo do Azure</t>
-        </is>
-      </c>
-      <c r="D12" s="21" t="n"/>
+          <t>Consulte as práticas recomendadas de backup e restauração para Serviço de Aplicativo do Azure e ASE (Ambientes do Serviço de Aplicativo) para garantir a disponibilidade e a recuperação de dados.</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="inlineStr">
+        <is>
+          <t>Siga as práticas recomendadas para configurar backups e restaurações no Serviço de Aplicativo do Azure e no ASE para garantir a disponibilidade dos dados e garantir a recuperação durante cenários de desastre.</t>
+        </is>
+      </c>
       <c r="E12" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1270,7 +1290,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-backup</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-backup</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1294,15 +1314,19 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Implementar práticas recomendadas de confiabilidade do Serviço de Aplicativo do Azure</t>
-        </is>
-      </c>
-      <c r="D13" s="21" t="n"/>
+          <t>Implemente as melhores práticas de confiabilidade do Serviço de Aplicativo do Azure, incluindo dimensionamento automático, tolerância a falhas, verificações de integridade e redundância de zona.</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="inlineStr">
+        <is>
+          <t>Garanta a alta disponibilidade incorporando dimensionamento, tolerância a falhas, monitoramento e redundância de zona em sua arquitetura do Serviço de Aplicativo. Aproveite as verificações de integridade e as zonas de disponibilidade para manter o tempo de atividade.</t>
+        </is>
+      </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1316,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/compute/azure-app-service/reliability</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1340,15 +1364,19 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Familiarizar-se com como mover um aplicativo do Serviço de Aplicativo para outra região durante um desastre</t>
-        </is>
-      </c>
-      <c r="D14" s="21" t="n"/>
+          <t>Familiarize-se com o failover de região do Serviço de Aplicativo, incluindo configurações ativo-ativo e ativo-passivo, failover automatizado e implantação de IaC.</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="inlineStr">
+        <is>
+          <t>Prepare-se para a recuperação de desastre implementando estratégias de failover de região. Utilize configurações ativo-ativo e ativo-passivo, failover automatizado e IaC (infraestrutura como código) para failover contínuo durante interrupções.</t>
+        </is>
+      </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -1362,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
+          <t>https://learn.microsoft.com/azure/app-service/manage-disaster-recovery#recover-app-content-only</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1386,15 +1414,19 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Familiarizar-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure</t>
-        </is>
-      </c>
-      <c r="D15" s="21" t="n"/>
+          <t>Familiarize-se com o suporte de confiabilidade no Serviço de Aplicativo do Azure, incluindo opções de dimensionamento, SLAs e mecanismos de recuperação automatizada.</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="inlineStr">
+        <is>
+          <t>O Serviço de Aplicativo do Azure oferece recursos internos de confiabilidade, incluindo dimensionamento, tolerância a falhas e SLAs (contratos de nível de serviço). Aproveite esses recursos para manter um desempenho consistente durante interrupções.</t>
+        </is>
+      </c>
       <c r="E15" s="21" t="inlineStr">
         <is>
           <t>Alto</t>
@@ -1408,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/reliability/reliability-app-service</t>
+          <t>https://learn.microsoft.com/azure/reliability/reliability-app-service</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1432,15 +1464,19 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Alta Disponibilidade</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Verifique se "Sempre Ativo" está habilitado para Aplicativos de Função em execução em um plano de serviço de aplicativo</t>
-        </is>
-      </c>
-      <c r="D16" s="21" t="n"/>
+          <t>Verifique se 'AlwaysOn' está habilitado para Aplicativos de Funções em execução em planos do Serviço de Aplicativo para evitar a inatividade e garantir a disponibilidade contínua.</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>Habilitar 'Always On' para Aplicativos de Funções garante que o aplicativo não fique ocioso, mantendo sua disponibilidade e capacidade de resposta o tempo todo.</t>
+        </is>
+      </c>
       <c r="E16" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1454,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-functions/dedicated-plan#always-on</t>
+          <t>https://learn.microsoft.com/azure/azure-functions/dedicated-plan#always-on</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1483,10 +1519,14 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Monitorar instâncias do Serviço de Aplicativo usando verificações de integridade</t>
-        </is>
-      </c>
-      <c r="D17" s="21" t="n"/>
+          <t>Monitore instâncias do Serviço de Aplicativo usando verificações de integridade para detectar instâncias não íntegras e substituí-las automaticamente.</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="inlineStr">
+        <is>
+          <t>As verificações de integridade monitoram a integridade das instâncias do Serviço de Aplicativo, permitindo a substituição automática de instâncias não íntegras para manter a alta disponibilidade.</t>
+        </is>
+      </c>
       <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1500,7 +1540,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/app-service/monitor-instances-health-check</t>
+          <t>https://learn.microsoft.com/azure/app-service/monitor-instances-health-check</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1524,15 +1564,19 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Alta disponibilidade</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights</t>
-        </is>
-      </c>
-      <c r="D18" s="21" t="n"/>
+          <t>Use a Recuperação Automática com regras personalizadas para reiniciar as instâncias do Serviço de Aplicativo automaticamente quando ocorrerem falhas.</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite a Recuperação Automática no Serviço de Aplicativo do Azure para reiniciar instâncias automaticamente ou disparar ações personalizadas com base em condições de falha predefinidas, como limites de memória, erros HTTP ou logs de eventos específicos.</t>
+        </is>
+      </c>
       <c r="E18" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -1546,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-diagnostics</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1554,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
+          <t>60b3a935-33e5-45c9-87c7-53882e395b46</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1575,13 +1619,13 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Usar o teste Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+          <t>Monitore a disponibilidade e a capacidade de resposta do aplicativo Web ou site usando testes de disponibilidade do Application Insights, garantindo a detecção proativa de problemas de desempenho e tempo de inatividade.</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
       <c r="E19" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1592,7 +1636,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/app/availability-standard-tests</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-overview</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1600,7 +1644,7 @@
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
+          <t>c7d3e5f9-a19c-4833-8ca6-1dcb0128e129</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1611,27 +1655,23 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre de Chaves para armazenar segredos</t>
-        </is>
-      </c>
-      <c r="D20" s="21" t="inlineStr">
-        <is>
-          <t>Use o Cofre de Chaves do Azure para armazenar quaisquer segredos de que o aplicativo precisa.  O Cofre de Chaves fornece um ambiente seguro e auditado para armazenar segredos e está bem integrado ao Serviço de Aplicativo por meio do SDK do Cofre de Chaves ou das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
-        </is>
-      </c>
+          <t>Use o teste do Application Insights Standard para monitorar a disponibilidade e a capacidade de resposta do aplicativo Web ou site</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n"/>
       <c r="E20" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1642,7 +1682,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/availability-standard-tests</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1650,7 +1690,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
+          <t>b4e3f2d5-a5c6-4d7e-8b2f-c5d9e7a8f0ea</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1661,27 +1701,27 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar ao Cofre de Chaves</t>
+          <t>Configure alertas para métricas críticas do Application Insights, como tempo de resposta e taxas de falha.</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Use uma Identidade Gerenciada para se conectar ao Cofre de Chaves usando o SDK do Cofre de Chaves ou por meio das Referências do Cofre de Chaves do Serviço de Aplicativo.</t>
+          <t>Configure alertas do Azure Monitor com base nas métricas do Application Insights para tempos de resposta, taxas de falha e disponibilidade geral. Os alertas ajudam a detectar problemas de forma proativa e reduzem o tempo médio de recuperação (MTTR).</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1692,7 +1732,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/app/alerts</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1700,7 +1740,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
+          <t>e52e4514-02a7-4e81-a98e-88ce1b18e557</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1716,17 +1756,17 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Proteção de dados</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Use o Cofre de Chaves para armazenar o certificado TLS.</t>
+          <t>Use o Azure Key Vault para armazenar todos os segredos de que o aplicativo precisa. O Key Vault fornece um ambiente seguro, gerenciado e auditado para armazenar segredos e se integra perfeitamente ao Serviço de Aplicativo por meio de Referências do Key Vault do Serviço de Aplicativo para maior segurança.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Armazene o certificado TLS do Serviço de Aplicativo no Cofre de Chaves.</t>
+          <t>O Azure Key Vault garante que os segredos sejam criptografados, armazenados com segurança e acessados somente por aplicativos autorizados. Ele oferece suporte ao log de auditoria e ao controle de versão secreto e reduz o risco de exposição acidental de informações confidenciais.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1742,7 +1782,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1750,7 +1790,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
+          <t>834ac932-223e-4ce8-8b12-3071a5416415</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1766,22 +1806,22 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Proteção de dados</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Isolar sistemas que processam informações confidenciais</t>
+          <t>Use a Identidade Gerenciada para se conectar com segurança ao Azure Key Vault para acessar segredos, por meio de Referências do Key Vault do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Os sistemas que processam informações confidenciais devem ser isolados.  Para fazer isso, use Planos do Serviço de Aplicativo ou Ambientes do Serviço de Aplicativo separados e considere o uso de assinaturas ou grupos de gerenciamento diferentes.</t>
+          <t>A Identidade Gerenciada elimina a necessidade de credenciais embutidas em código, permitindo que o Serviço de Aplicativo se autentique no Azure Key Vault com segurança. Isso reduz o risco de exposição de credenciais e simplifica o gerenciamento de segredos para maior segurança.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1792,7 +1832,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-key-vault-references</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1800,7 +1840,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
+          <t>833ea3ad-2c2d-4e73-8165-c3acbef4abe1</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1816,22 +1856,22 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Proteção de Dados</t>
+          <t>Proteção de dados</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Não armazene dados confidenciais no disco local</t>
+          <t>Use o Azure Key Vault para armazenar e gerenciar com segurança certificados TLS para o Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
+          <t>O armazenamento de certificados TLS no Azure Key Vault aumenta a segurança, fornecendo gerenciamento centralizado e seguro e renovação automatizada de certificados. Isso reduz o risco de erros de manuseio manual e expiração do certificado.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1842,7 +1882,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-certificate</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1850,7 +1890,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
+          <t>f8d39fda-4776-4831-9c11-5775c2ea55b4</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1866,17 +1906,17 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Controle de Identidade e Acesso</t>
+          <t>Proteção de dados</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Usar um provedor de identidade estabelecido para autenticação</t>
+          <t>Isole sistemas que processam informações confidenciais usando Planos do Serviço de Aplicativo, ASE (Ambientes do Serviço de Aplicativo) separados e considere diferentes assinaturas ou grupos de gerenciamento para maior segurança.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos Web autenticados, use um Provedor de Identidade bem estabelecido, como o Azure AD ou o Azure AD B2C.  Aproveite a estrutura de aplicativo de sua escolha para se integrar a esse provedor ou use o recurso de Autenticação/Autorização do Serviço de Aplicativo.</t>
+          <t>Para minimizar a exposição e melhorar a segurança, isole os sistemas que processam dados confidenciais. Aproveite Planos de Serviço de Aplicativo ou Ambientes de Serviço de Aplicativo separados para isolamento e use assinaturas ou grupos de gerenciamento diferentes para impor limites e governança mais rígidos.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1892,7 +1932,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-hosting-plans</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1900,7 +1940,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
+          <t>6ad48408-ee72-4734-a475-ba18fdbf590c</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1916,22 +1956,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Controle de Identidade e Acesso</t>
+          <t>Proteção de dados</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Implantar a partir de um ambiente confiável</t>
+          <t>Não armazene dados confidenciais no disco local</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Implante código no Serviço de Aplicativo a partir de um ambiente controlado e confiável, como um pipeline de implantação de DevOps bem gerenciado e seguro. Isso evita que o código que não foi controlado por versão e verificado para ser implantado a partir de um host mal-intencionado.</t>
+          <t>Os discos locais no Serviço de Aplicativo não são criptografados e os dados confidenciais não devem ser armazenados neles.  (Por exemplo: D:\\Local e %TMP%).</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1942,7 +1982,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
+          <t>https://learn.microsoft.com/azure/app-service/operating-system-functionality#file-access</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -1950,7 +1990,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
+          <t>e65de8e0-3f9b-4cbd-9682-66abca264f9a</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1966,22 +2006,22 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Controle de Identidade e Acesso</t>
+          <t>Controle de identidade e acesso</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Desabilitar a autenticação básica</t>
+          <t>Use a ID do Microsoft Entra ou B2C para autenticação segura e SSO (Logon Único).</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.  Isso desabilita o acesso a esses serviços e impõe o uso de pontos de extremidade protegidos do Azure AD para implantação.  Observe que o site do SCM também pode ser aberto usando credenciais do Azure AD.</t>
+          <t>Use o Microsoft Entra ID ou B2C para autenticação segura do usuário e SSO (Logon Único) entre aplicativos. Integre usando o recurso interno de Autenticação/Autorização do Serviço de Aplicativo para simplificar a segurança e a conformidade com protocolos de autenticação modernos, como o OpenID Connect.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1992,14 +2032,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-authentication-authorization</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
+          <t>919ca0b2-c121-459e-814b-933df574eccc</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2015,17 +2055,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Controle de Identidade e Acesso</t>
+          <t>Controle de identidade e acesso</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar a Identidade Gerenciada para se conectar a recursos</t>
+          <t>Implante o código no Serviço de Aplicativo de um ambiente confiável e seguro.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Sempre que possível, use a Identidade Gerenciada para se conectar aos recursos protegidos do Azure AD.  Se isso não for possível, armazene segredos no Cofre de Chaves e conecte-se ao Cofre de Chaves usando uma Identidade Gerenciada.</t>
+          <t>Verifique se todas as implantações de código no Serviço de Aplicativo se originam de um ambiente controlado e seguro, como um pipeline de DevOps bem gerenciado. Essa prática reduz o risco de implantação de código não autorizado ou mal-intencionado, impondo controle de versão, verificação de código e hospedagem segura.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2041,14 +2081,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-best-practices</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
+          <t>3f9bcbd4-6826-46ab-aa26-4f9a19aed9c5</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2064,17 +2104,17 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Controle de Identidade e Acesso</t>
+          <t>Controle de identidade e acesso</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Extrair contêineres usando uma identidade gerenciada</t>
+          <t>Desative a autenticação básica para FTP/FTPS e WebDeploy/SCM.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Onde estiver usando imagens armazenadas no Registro de Contêiner do Azure, extraia-as usando uma Identidade Gerenciada.</t>
+          <t>Desabilite a autenticação básica para FTP/FTPS e WebDeploy/SCM para aprimorar a segurança impondo pontos de extremidade protegidos da ID do Microsoft Entra para implantação. Isso garante que apenas usuários autenticados usando credenciais de ID do Microsoft Entra possam acessar serviços de implantação, incluindo o site do SCM.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2090,14 +2130,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
+          <t>https://learn.microsoft.com/azure/app-service/deploy-configure-credentials#disable-basic-authentication</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
+          <t>5d04c2c3-919c-4a0b-8c12-159e114b933d</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2113,22 +2153,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>Registro e monitoramento</t>
+          <t>Controle de identidade e acesso</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Enviar logs de tempo de execução do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Use a Identidade Gerenciada para se conectar aos recursos protegidos da ID do Microsoft Entra.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Ao definir as configurações de diagnóstico do Serviço de Aplicativo, você pode enviar toda a telemetria para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade de tempo de execução do Serviço de Aplicativo, como logs HTTP, logs de aplicativos, logs de plataforma, ...</t>
+          <t>Sempre que possível, use a Identidade Gerenciada para se conectar com segurança a recursos protegidos por ID do Microsoft Entra sem armazenar credenciais. Se isso não for viável, armazene segredos no Azure Key Vault e acesse-os usando a Identidade Gerenciada para manter a segurança e reduzir o risco de exposição de credenciais.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2139,14 +2179,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-managed-identity?tabs=portal%2Chttp</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
+          <t>f574eccc-d9bd-43ba-bcda-3b54eb2eb03d</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2162,22 +2202,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>Registro e monitoramento</t>
+          <t>Controle de identidade e acesso</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Enviar logs de atividade do Serviço de Aplicativo para o Log Analytics</t>
+          <t>Efetue pull de imagens de contêiner do Registro de Contêiner do Azure usando uma Identidade Gerenciada.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Configure uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro e monitoramento. Isso permite que você monitore a atividade do plano de controle no próprio recurso do Serviço de Aplicativo.</t>
+          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, efetue pull dessas imagens usando uma Identidade Gerenciada para evitar o armazenamento de credenciais. Isso garante acesso seguro a imagens de contêiner e reduz o risco de exposição de credenciais.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2188,14 +2228,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-managed-identity-to-pull-image-from-azure-container-registry</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
+          <t>d9a25827-18d2-4ddb-8072-5769ee6691a4</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2211,17 +2251,17 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Registro e monitoramento</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>O acesso à rede de saída deve ser controlado</t>
+          <t>Envie logs de segurança e runtime do Serviço de Aplicativo para o Log Analytics para monitoramento e alertas centralizados.</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de saída usando uma combinação de integração regional de VNet, grupos de segurança de rede e UDR's.  O tráfego deve ser roteado para um NVA, como o Firewall do Azure.  Certifique-se de monitorar os logs do Firewall.</t>
+          <t>Defina as configurações de diagnóstico para enviar logs de telemetria e segurança (incluindo logs HTTP, de plataforma e de auditoria) para o Log Analytics. O registro centralizado aprimora o monitoramento, a detecção de ameaças e os relatórios de conformidade.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
@@ -2237,7 +2277,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
+          <t>https://learn.microsoft.com/azure/app-service/troubleshoot-diagnostic-logs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2245,7 +2285,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
+          <t>47768314-c115-4775-a2ea-55b46ad48408</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2261,22 +2301,22 @@
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Registro e monitoramento</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Garantir um IP estável para comunicações de saída para endereços de Internet</t>
+          <t>Enviar logs de atividades do Serviço de Aplicativo para o Log Analytics</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Você pode fornecer um IP de saída estável usando a integração de rede virtual e um gateway NAT de rede virtual ou um NVA como o Firewall do Azure.  Isso permite que a parte receptora permita uma lista com base no IP, caso seja necessário.  Observe que, para comunicações com os Serviços do Azure, geralmente não há necessidade de depender do endereço IP e mecânicas como Pontos de Extremidade de Serviço devem ser usadas.  (Além disso, o uso de pontos de extremidade privados na extremidade de recebimento evita que o SNAT aconteça e fornece um intervalo de IP de saída estável.)</t>
+          <t>Defina uma configuração de diagnóstico para enviar o log de atividades para o Log Analytics como o destino central para registro em log e monitoramento. Isso permite que você monitore a atividade do painel de controle no próprio recurso do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2287,7 +2327,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/essentials/activity-log</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2295,7 +2335,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
+          <t>ee72734b-475b-4a18-bdbf-590ce65de8e0</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2311,22 +2351,22 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>O acesso à rede de entrada deve ser controlado</t>
+          <t>Controle o acesso à rede de saída para o Serviço de Aplicativo usando a integração de VNet, NSGs, UDRs e firewalls.</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Controle o acesso à rede de entrada usando uma combinação de Restrições de Acesso do Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Diferentes restrições de acesso podem ser necessárias e configuradas para o próprio aplicativo Web e o site do SCM.</t>
+          <t>Use a integração regional de VNet, NSGs (Grupos de Segurança de Rede) e UDRs (Rotas Definidas pelo Usuário) para controlar o acesso à rede de saída. Roteie o tráfego por meio de uma NVA (Solução de Virtualização de Rede), como o Firewall do Azure, e monitore os logs de firewall para garantir que o tráfego seja controlado e seguro adequadamente.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2337,7 +2377,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
+          <t>https://learn.microsoft.com/azure/app-service/overview-vnet-integration</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2345,7 +2385,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
+          <t>c12159e1-14b9-433d-b574-ecccd9bd3baf</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2361,22 +2401,22 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Usar um WAF na frente do Serviço de Aplicativo</t>
+          <t>Garanta um IP estável para comunicações de saída usando o Gateway NAT da VNet ou o Firewall do Azure.</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Proteja-se contra tráfego de entrada mal-intencionado usando um Firewall de Aplicativo Web, como o Gateway de Aplicativo ou o Azure Front Door.  Certifique-se de monitorar os logs do WAF.</t>
+          <t>Forneça um IP de saída estável usando a integração da VNet com um Gateway NAT ou NVA (Solução de Virtualização de Rede), como o Firewall do Azure. Isso permite que a parte receptora inclua uma lista de permissões com base no IP, se necessário. Para comunicações com serviços do Azure, use mecanismos como Pontos de Extremidade de Serviço ou pontos de extremidade privados para evitar depender de IPs estáticos, garantindo conectividade segura e eficiente.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2387,7 +2427,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/nat-gateway-integration</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2395,7 +2435,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
+          <t>cda3b54e-b2eb-403d-b9a2-582718d2ddb1</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2411,17 +2451,17 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Evite que o WAF seja ignorado</t>
+          <t>Controle o acesso à rede de entrada usando Restrições de Acesso, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados.</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de que o WAF não pode ser ignorado bloqueando o acesso apenas ao WAF.  Use uma combinação de Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados.</t>
+          <t>Controle o acesso à rede de entrada configurando Restrições de Acesso ao Serviço de Aplicativo, Pontos de Extremidade de Serviço ou Pontos de Extremidade Privados. Verifique se as restrições apropriadas estão definidas para o aplicativo Web e o site SCM (implantação) para limitar o acesso não autorizado e aumentar a segurança.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2445,7 +2485,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
+          <t>0725769e-e669-41a4-a34a-c932223ece80</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2461,22 +2501,22 @@
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Definir a política TLS mínima como 1.2</t>
+          <t>Use um WAF (Firewall de Aplicativo Web) na frente do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Defina a política TLS mínima como 1.2 na configuração do Serviço de Aplicativo.</t>
+          <t>Proteja o Serviço de Aplicativo contra tráfego de entrada mal-intencionado implantando um WAF (Firewall de Aplicativo Web) usando o Gateway de Aplicativo do Azure ou o Azure Front Door. Certifique-se de que os logs do WAF sejam monitorados regularmente para detectar e responder a ameaças de segurança.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2487,7 +2527,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking/app-gateway-with-service-endpoints</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2495,7 +2535,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
+          <t>b123071a-5416-4415-a33e-a3ad2c2de732</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2511,17 +2551,17 @@
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Usar somente HTTPS</t>
+          <t>Verifique se o WAF não pode ser ignorado protegendo o acesso ao Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Configure o Serviço de Aplicativo para usar somente HTTPS.  Isso faz com que o Serviço de Aplicativo redirecione de HTTP para HTTPS.  Considere fortemente o uso de HTTP Strict Transport Security (HSTS) em seu código ou a partir de seu WAF, que informa aos navegadores que o site só deve ser acessado usando HTTPS.</t>
+          <t>Para impedir que o WAF (Firewall de Aplicativo Web) seja ignorado, bloqueie o acesso ao Serviço de Aplicativo usando Restrições de Acesso, Pontos de Extremidade de Serviço e Pontos de Extremidade Privados. Isso garante que todo o tráfego seja roteado pelo WAF, fornecendo uma camada frontal segura de proteção.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2537,7 +2577,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features#access-restrictions</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2545,7 +2585,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
+          <t>165c3acb-ef4a-4be1-b8d3-9fda47768314</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2561,22 +2601,22 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Curingas não devem ser usados para CORS</t>
+          <t>Defina a política TLS mínima como 1.2 ou superior, preferencialmente 1.3, na configuração do Serviço de Aplicativo.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Não use curingas em sua configuração do CORS, pois isso permite que todas as origens acessem o serviço (derrotando assim o propósito do CORS). Especificamente, permita apenas as origens que você espera poder acessar o serviço.</t>
+          <t>Certifique-se de que a política mínima de TLS esteja definida como 1.2 ou superior, com preferência por TLS 1.3, para aprimorar a segurança por meio de protocolos de criptografia mais fortes. O TLS 1.3 fornece melhorias de segurança adicionais e tempos de handshake mais rápidos, reduzindo as vulnerabilidades associadas a versões mais antigas.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2587,7 +2627,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-tls-versions</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2595,7 +2635,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
+          <t>c115775c-2ea5-45b4-9ad4-8408ee72734b</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2611,17 +2651,17 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Desativar a depuração remota</t>
+          <t>Use apenas HTTPS e considere habilitar o HTTP Strict Transport Security (HSTS).</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>A depuração remota não deve ser ativada na produção, pois isso abre portas adicionais no serviço, o que aumenta a superfície de ataque. Observe que o serviço ativa a depuração remota automaticamente após 48 horas.</t>
+          <t>Configure o Serviço de Aplicativo para impor somente HTTPS, redirecionando automaticamente todo o tráfego HTTP para HTTPS. Além disso, implemente o HTTP Strict Transport Security (HSTS) em seu código ou por meio de um Web Application Firewall (WAF) para garantir que os navegadores acessem o site apenas por HTTPS, aumentando a segurança e evitando ataques de downgrade.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2637,7 +2677,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-ssl-bindings#enforce-https</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2645,7 +2685,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
+          <t>475ba18f-dbf5-490c-b65d-e8e03f9bcbd4</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2661,22 +2701,22 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o Defender for Cloud - Defender for App Service</t>
+          <t>Evite usar curingas para CORS; Especifique as origens permitidas explicitamente.</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender para o Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP mal-intencionados conhecidos.  Analise as recomendações do Defender for App Service como parte de suas operações.</t>
+          <t>Não use curingas (*) em sua configuração de CORS, pois isso permite acesso irrestrito de qualquer origem, comprometendo a segurança. Em vez disso, especifique explicitamente as origens confiáveis que têm permissão para acessar o serviço, garantindo o acesso controlado.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2687,7 +2727,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
+          <t>https://learn.microsoft.com/azure/app-service/app-service-web-tutorial-rest-api</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2695,7 +2735,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
+          <t>68266abc-a264-4f9a-89ae-d9c55d04c2c3</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2711,22 +2751,22 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Habilitar o padrão de proteção DDOS na rede virtual WAF</t>
+          <t>Desative a depuração remota em ambientes de produção.</t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>O Azure fornece proteção contra DDoS Basic em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Application Gateway ou um NVA.</t>
+          <t>A depuração remota não deve ser habilitada na produção, pois abre portas adicionais, aumentando a superfície de ataque. Embora o Serviço de Aplicativo desative automaticamente a depuração remota após 48 horas, é recomendável desabilitá-lo manualmente na produção para manter um ambiente seguro.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2737,7 +2777,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-common#configure-general-settings</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2745,7 +2785,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
+          <t>d9bd3baf-cda3-4b54-bb2e-b03dd9a25827</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2761,17 +2801,17 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>Segurança de Redes</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Extrair contêineres por uma rede virtual</t>
+          <t>Habilitar o Defender para Nuvem – Defender para Serviço de Aplicativo</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, extraia-as por uma rede virtual do Registro de Contêiner do Azure usando seu ponto de extremidade privado e a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'.</t>
+          <t>Habilite o Defender para Serviço de Aplicativo.  Isso (entre outras ameaças) detecta comunicações com endereços IP maliciosos conhecidos.  Examine as recomendações do Defender para Serviço de Aplicativo como parte de suas operações.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2787,7 +2827,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-app-service-introduction</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2795,7 +2835,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
+          <t>18d2ddb1-0725-4769-be66-91a4834ac932</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2811,17 +2851,17 @@
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>Testes de Penetração</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração</t>
+          <t>Habilitar o padrão de proteção contra DDOS na VNet do WAF</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t>Realizar um teste de penetração na aplicação web seguindo as regras de teste de penetração de engajamento.</t>
+          <t>O Azure fornece proteção básica contra DDoS em sua rede, que pode ser aprimorada com recursos inteligentes de DDoS Standard, que aprendem sobre padrões normais de tráfego e podem detectar comportamentos incomuns. O DDoS Standard se aplica a uma Rede Virtual, portanto, ele deve ser configurado para o recurso de rede na frente do aplicativo, como o Gateway de Aplicativo ou uma NVA.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2837,7 +2877,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2845,7 +2885,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
+          <t>223ece80-b123-4071-a541-6415833ea3ad</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2861,17 +2901,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Vulnerabilidades</t>
+          <t>Segurança de rede</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Implantar código validado</t>
+          <t>Efetue pull de imagens de contêiner em uma Rede Virtual do Registro de Contêiner do Azure.</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>Implante código confiável que foi validado e verificado em busca de vulnerabilidades de acordo com as práticas de DevSecOps.</t>
+          <t>Ao usar imagens armazenadas no Registro de Contêiner do Azure, verifique se elas são extraídas de uma rede virtual usando um ponto de extremidade privado e definindo a configuração do aplicativo 'WEBSITE_PULL_IMAGE_OVER_VNET'. Isso garante a comunicação segura entre o Serviço de Aplicativo e o Registro, evitando a exposição à Internet pública.</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2887,14 +2927,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+          <t>https://learn.microsoft.com/azure/app-service/configure-custom-container#use-an-image-from-a-network-protected-registry</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+          <t>2c2de732-165c-43ac-aef4-abe1f8d39fda</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2910,22 +2950,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Vulnerabilidades</t>
+          <t>Teste de penetração</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+          <t>Realize um teste de penetração no aplicativo Web.</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>Use as versões mais recentes de plataformas, linguagens de programação, protocolos e estruturas suportadas.</t>
+          <t>Execute um teste de penetração no aplicativo Web de acordo com as regras de compromisso de teste de penetração do Azure. Isso ajuda a identificar vulnerabilidades e pontos fracos de segurança que podem ser resolvidos antes de serem explorados.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2936,7 +2976,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/pen-testing</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2944,7 +2984,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+          <t>eb2eb03d-d9a2-4582-918d-2ddb10725769</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2953,83 +2993,248 @@
       <c r="P46" s="25" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="21" t="n"/>
-      <c r="B47" s="21" t="n"/>
-      <c r="C47" s="21" t="n"/>
-      <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="A47" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B47" s="21" t="inlineStr">
+        <is>
+          <t>Gerenciamento de vulnerabilidades</t>
+        </is>
+      </c>
+      <c r="C47" s="21" t="inlineStr">
+        <is>
+          <t>Implante código validado e verificado por vulnerabilidade.</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que apenas o código confiável, que foi validado e verificado em busca de vulnerabilidades, seja implantado na produção seguindo as práticas de DevSecOps. Isso minimiza o risco de introduzir vulnerabilidades de segurança no ambiente do aplicativo.</t>
+        </is>
+      </c>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G47" s="21" t="n"/>
-      <c r="H47" s="15" t="n"/>
+      <c r="H47" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/solution-ideas/articles/devsecops-in-azure</t>
+        </is>
+      </c>
       <c r="I47" s="15" t="n"/>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="25" t="n"/>
+      <c r="L47" s="25" t="inlineStr">
+        <is>
+          <t>19aed9c5-5d04-4c2c-9919-ca0b2c12159e</t>
+        </is>
+      </c>
       <c r="M47" s="25" t="n"/>
       <c r="N47" s="25" t="n"/>
       <c r="O47" s="25" t="n"/>
       <c r="P47" s="25" t="n"/>
     </row>
     <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" s="21" t="n"/>
-      <c r="B48" s="21" t="n"/>
-      <c r="C48" s="21" t="n"/>
-      <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="A48" s="21" t="inlineStr">
+        <is>
+          <t>Segurança</t>
+        </is>
+      </c>
+      <c r="B48" s="21" t="inlineStr">
+        <is>
+          <t>Gerenciamento de vulnerabilidades</t>
+        </is>
+      </c>
+      <c r="C48" s="21" t="inlineStr">
+        <is>
+          <t>Use plataformas, linguagens, protocolos e frameworks atualizados</t>
+        </is>
+      </c>
+      <c r="D48" s="21" t="inlineStr">
+        <is>
+          <t>Certifique-se de que as versões mais recentes das plataformas, linguagens de programação, protocolos e estruturas suportadas sejam usadas. Atualizações regulares reduzem o risco de vulnerabilidades de segurança e garantem a compatibilidade com patches de segurança.</t>
+        </is>
+      </c>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/app-service/overview-patch-os-runtime</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="25" t="n"/>
+      <c r="L48" s="25" t="inlineStr">
+        <is>
+          <t>114b933d-f574-4ecc-ad9b-d3bafcda3b54</t>
+        </is>
+      </c>
       <c r="M48" s="25" t="n"/>
       <c r="N48" s="25" t="n"/>
       <c r="O48" s="25" t="n"/>
       <c r="P48" s="25" t="n"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" s="21" t="n"/>
-      <c r="B49" s="21" t="n"/>
-      <c r="C49" s="21" t="n"/>
-      <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="A49" s="21" t="inlineStr">
+        <is>
+          <t>Governança de custos</t>
+        </is>
+      </c>
+      <c r="B49" s="21" t="inlineStr">
+        <is>
+          <t>Monitoramento de custos</t>
+        </is>
+      </c>
+      <c r="C49" s="21" t="inlineStr">
+        <is>
+          <t>Monitore os custos do Serviço de Aplicativo usando o Gerenciamento de Custos do Azure e crie alertas de custo.</t>
+        </is>
+      </c>
+      <c r="D49" s="21" t="inlineStr">
+        <is>
+          <t>Aproveite o Gerenciamento de Custos do Azure para acompanhar e prever as despesas do Serviço de Aplicativo. Configure alertas para limites de orçamento para evitar gastos excessivos e otimize os custos com base nas tendências de utilização de recursos.</t>
+        </is>
+      </c>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G49" s="21" t="n"/>
-      <c r="H49" s="15" t="n"/>
+      <c r="H49" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/</t>
+        </is>
+      </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="25" t="n"/>
+      <c r="L49" s="25" t="inlineStr">
+        <is>
+          <t>42eb48f0-28ff-497c-b2c0-a8fa1f989832</t>
+        </is>
+      </c>
       <c r="M49" s="25" t="n"/>
       <c r="N49" s="25" t="n"/>
       <c r="O49" s="25" t="n"/>
       <c r="P49" s="25" t="n"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" s="21" t="n"/>
-      <c r="B50" s="21" t="n"/>
-      <c r="C50" s="21" t="n"/>
-      <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="A50" s="21" t="inlineStr">
+        <is>
+          <t>Governança de custos</t>
+        </is>
+      </c>
+      <c r="B50" s="21" t="inlineStr">
+        <is>
+          <t>Otimização de custos</t>
+        </is>
+      </c>
+      <c r="C50" s="21" t="inlineStr">
+        <is>
+          <t>Compre instâncias reservadas para planos do Serviço de Aplicativo para otimizar os custos de longo prazo.</t>
+        </is>
+      </c>
+      <c r="D50" s="21" t="inlineStr">
+        <is>
+          <t>Se você tiver um uso previsível e estável do Serviço de Aplicativo, a compra de Instâncias Reservadas poderá reduzir significativamente os custos de longo prazo. Comprometa-se com um ou três anos para preços mais baixos em comparação com o pagamento conforme o uso.</t>
+        </is>
+      </c>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="n"/>
+      <c r="H50" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/</t>
+        </is>
+      </c>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="25" t="n"/>
+      <c r="L50" s="25" t="inlineStr">
+        <is>
+          <t>e489221b-487e-48a3-aaab-48e3d205ca12</t>
+        </is>
+      </c>
       <c r="M50" s="25" t="n"/>
       <c r="N50" s="25" t="n"/>
       <c r="O50" s="25" t="n"/>
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
-      <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>Governança e segurança</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>Conformidade</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>Aplique o Azure Policy para impor a conformidade nas configurações do Serviço de Aplicativo.</t>
+        </is>
+      </c>
+      <c r="D51" s="21" t="inlineStr">
+        <is>
+          <t>Use o Azure Policy para impor configurações de segurança, conformidade e governança para o Serviço de Aplicativo. As políticas podem garantir que configurações críticas, como versões TLS, configurações de backup e restrições de rede, sejam impostas em todas as instâncias do Serviço de Aplicativo.</t>
+        </is>
+      </c>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Não verificado</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
-      <c r="H51" s="15" t="n"/>
+      <c r="H51" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>361e886f-ca40-4ead-a8e9-1379c642ae9c</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
@@ -7046,7 +7251,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F47" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7174,7 +7379,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Topologia e conectividade de rede</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7206,7 +7411,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7223,12 +7428,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Governança e segurança</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7245,7 +7450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Governança de custos</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
